--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88888.39570904577</v>
+        <v>-35002.30801337</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10417451.42146188</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22002153.75219174</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4142394.528074609</v>
+        <v>4142361.561375731</v>
       </c>
     </row>
     <row r="11">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8698,13 +8698,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8862,10 +8862,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357660.5235076812</v>
+        <v>357603.4358516805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="D2" t="n">
         <v>64504.44331886782</v>
       </c>
       <c r="E2" t="n">
-        <v>71732.21944914956</v>
+        <v>71732.21944914953</v>
       </c>
       <c r="F2" t="n">
         <v>71732.21944914953</v>
@@ -26355,7 +26355,7 @@
         <v>71732.21944914953</v>
       </c>
       <c r="P2" t="n">
-        <v>71861.77022901646</v>
+        <v>71732.21944914953</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4233.205454181119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>10328.63406743434</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028305</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="E6" t="n">
-        <v>-203082.9180332146</v>
+        <v>-217631.2773257259</v>
       </c>
       <c r="F6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="G6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="H6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="I6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="J6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="K6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="L6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="M6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="N6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="O6" t="n">
-        <v>53862.40837176831</v>
+        <v>39314.04907925702</v>
       </c>
       <c r="P6" t="n">
-        <v>50189.17549004984</v>
+        <v>39314.04907925702</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.360213490542208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31761,7 +31761,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31840,7 +31840,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31870,7 +31870,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31913,13 +31913,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31934,10 +31934,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35002.30801337</v>
+        <v>76029.99845760741</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>64504.44331886783</v>
       </c>
       <c r="C2" t="n">
-        <v>64504.44331886784</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
         <v>64504.44331886782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728652</v>
       </c>
       <c r="C6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728654</v>
       </c>
       <c r="D6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728653</v>
       </c>
       <c r="E6" t="n">
-        <v>-217631.2773257259</v>
+        <v>-204537.7539624657</v>
       </c>
       <c r="F6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="G6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="H6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="I6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="J6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="K6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="L6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="M6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="N6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="O6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
       <c r="P6" t="n">
-        <v>39314.04907925702</v>
+        <v>52407.57244251718</v>
       </c>
     </row>
   </sheetData>
